--- a/model/src/Llama1B_no_rag_results_easy.xlsx
+++ b/model/src/Llama1B_no_rag_results_easy.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87776759-196C-4294-B714-9D88519D9CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870208C8-189E-4BD2-A76F-87BFD707F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>question</t>
   </si>
@@ -593,23 +606,6 @@
 **Capstone Project:**
 The first-year students will work on a capstone project that involves applying their knowledge and skills to a real-world business problem or scenario. The project will be guided by industry experts and will require students to develop a comprehensive solution using business intelligence tools and techniques.
 Overall, the first-year curriculum provides a solid foundation in business intelligence principles, data mining, and machine learning, while also introducing students to big data analytics and data visualization. The elective courses provide additional depth and breadth of knowledge in specific areas of interest.</t>
-  </si>
-  <si>
-    <t>What programming languages are taught in the Bachelor's in Data Science?</t>
-  </si>
-  <si>
-    <t>?
-The following programming languages are commonly taught in a Bachelor's degree program in Data Science:
-1. **Python**: This is one of the most popular and widely used programming languages in data science, particularly for machine learning, data analysis, and visualization.
-2. **R**: R is another popular language used extensively in data science, especially for statistical modeling, data visualization, and data manipulation.
-3. **SQL**: SQL (Structured Query Language) is a fundamental language for working with relational databases, which is essential for data science tasks such as data cleaning, transformation, and querying.
-4. **Java**: Java is often used for building data processing pipelines, data integration, and data warehousing applications.
-5. **JavaScript**: JavaScript is commonly used for web development, data visualization, and client-side scripting, making it an essential skill for data scientists who work on web-based projects.
-Additionally, some programs may also teach other programming languages, such as:
-* **MATLAB**: A high-level language specifically designed for numerical computation and data analysis.
-* **Julia**: A new language gaining popularity in the data science community due to its speed and flexibility.
-* **C++**: Some programs may also teach C++ for building large-scale data processing systems or developing custom algorithms.
-Keep in mind that the specific programming languages taught can vary depending on the institution, program, and curriculum.</t>
   </si>
   <si>
     <t>How does the Master in Information Management, with a specialization in Business Intelligence prepare students for the digital transformation of businesses?</t>
@@ -1391,7 +1387,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1449,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1734,7 +1730,7 @@
         <v>61</v>
       </c>
       <c r="C31">
-        <v>69.599811553955078</v>
+        <v>112.709442615509</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,7 +1741,7 @@
         <v>63</v>
       </c>
       <c r="C32">
-        <v>112.709442615509</v>
+        <v>70.060779571533203</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1756,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="C33">
-        <v>70.060779571533203</v>
+        <v>93.256216049194336</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1767,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="C34">
-        <v>93.256216049194336</v>
+        <v>113.16583514213561</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1778,7 +1774,7 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>113.16583514213561</v>
+        <v>82.781889915466309</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1789,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="C36">
-        <v>82.781889915466309</v>
+        <v>78.409196138381958</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1800,7 +1796,7 @@
         <v>73</v>
       </c>
       <c r="C37">
-        <v>78.409196138381958</v>
+        <v>63.39463210105896</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1811,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>63.39463210105896</v>
+        <v>129.22568154335019</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1822,7 +1818,7 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>129.22568154335019</v>
+        <v>23.999989032745361</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1833,7 +1829,7 @@
         <v>79</v>
       </c>
       <c r="C40">
-        <v>23.999989032745361</v>
+        <v>19.120029926300049</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1844,7 +1840,7 @@
         <v>81</v>
       </c>
       <c r="C41">
-        <v>19.120029926300049</v>
+        <v>80.445853471755981</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1855,7 +1851,7 @@
         <v>83</v>
       </c>
       <c r="C42">
-        <v>80.445853471755981</v>
+        <v>221.49983978271479</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1866,7 +1862,7 @@
         <v>85</v>
       </c>
       <c r="C43">
-        <v>221.49983978271479</v>
+        <v>142.43985867500311</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1877,7 +1873,7 @@
         <v>87</v>
       </c>
       <c r="C44">
-        <v>142.43985867500311</v>
+        <v>22.215299844741821</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1888,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <v>22.215299844741821</v>
+        <v>113.7447128295898</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1899,7 +1895,7 @@
         <v>91</v>
       </c>
       <c r="C46">
-        <v>113.7447128295898</v>
+        <v>63.643216133117683</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1910,7 +1906,7 @@
         <v>93</v>
       </c>
       <c r="C47">
-        <v>63.643216133117683</v>
+        <v>173.09282636642459</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1921,7 +1917,7 @@
         <v>95</v>
       </c>
       <c r="C48">
-        <v>173.09282636642459</v>
+        <v>157.88223361968991</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1932,7 +1928,7 @@
         <v>97</v>
       </c>
       <c r="C49">
-        <v>157.88223361968991</v>
+        <v>83.263967990875244</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1943,7 +1939,7 @@
         <v>99</v>
       </c>
       <c r="C50">
-        <v>83.263967990875244</v>
+        <v>145.843700170517</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1954,7 +1950,7 @@
         <v>101</v>
       </c>
       <c r="C51">
-        <v>145.843700170517</v>
+        <v>9.7025384902954102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,14 +1965,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
       <c r="C53">
-        <v>180.3324248790741</v>
+        <f>AVERAGE(C2:C52)</f>
+        <v>80.790692296682622</v>
       </c>
     </row>
   </sheetData>
